--- a/2024.10.10 Дашборд.xlsx
+++ b/2024.10.10 Дашборд.xlsx
@@ -5862,10 +5862,10 @@
       </c>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="n">
-        <v>2.007810360213107</v>
+        <v>2.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.5711143695014663</v>
+        <v>0.57</v>
       </c>
       <c r="AD30" t="n">
         <v>3147</v>
@@ -5881,10 +5881,10 @@
       </c>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="n">
-        <v>3.475566118586713</v>
+        <v>3.5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.4053845162952467</v>
+        <v>0.41</v>
       </c>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
@@ -20048,10 +20048,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="F16" t="n">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="G16" t="n">
         <v>49</v>
@@ -20604,10 +20604,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F35" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G35" t="n">
         <v>9</v>
@@ -21712,13 +21712,13 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F73" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G73" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H73" t="n">
         <v>0.1222879684418146</v>
